--- a/熱電対測定.xlsx
+++ b/熱電対測定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\Documents\school_task\実験測定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\schooltask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D8DED-C60B-4CC7-9D80-A02F021CC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C474053-21FA-4D91-90FD-C01C622BF7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99B0302E-72D7-4D58-AE98-118A57F42033}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="15600" xr2:uid="{99B0302E-72D7-4D58-AE98-118A57F42033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -339,30 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.1(113)→3.9(100)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.9(113)→4(100.1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1(100.4)→3.8(100.5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.9(100.8)→3.9(99.6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.5(101.5)→3.9(99.8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5(102)→3.9(100)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>沸騰水2回目</t>
     <rPh sb="0" eb="3">
       <t>フットウスイ</t>
@@ -383,7 +359,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.83333(105.1167)→3.9(100)</t>
+    <t>3.9(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4(100.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.8(100.5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.9(99.6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.9(99.8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2(61.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1(59.4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0(58.9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.14(60.3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.32(59.82)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.68(50.74)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,20 +490,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -501,6 +518,922 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>温度検量線</c:name>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8197-44A9-9361-2862F45D4397}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1991641216"/>
+        <c:axId val="2101426928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1991641216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101426928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101426928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1991641216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687CB15F-06E2-813F-A5D2-EEFAB3D828D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,48 +1733,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B3DFBE-34AB-43F9-A9D4-8F415FE2D85E}">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="66.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -849,7 +1783,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -865,7 +1799,9 @@
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
@@ -873,7 +1809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -881,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
@@ -889,7 +1825,9 @@
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
@@ -897,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -913,9 +1851,11 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -923,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -931,15 +1871,17 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -955,7 +1897,9 @@
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -969,11 +1913,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -991,7 +1937,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,11 +1945,17 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I9" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1017,17 +1969,25 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.41633300000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.50753999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.26457000000000003</v>
+      </c>
       <c r="I10" s="1">
         <v>2.9</v>
       </c>
@@ -1041,7 +2001,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,9 +2011,15 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="1">
         <v>2.5</v>
       </c>
@@ -1067,8 +2033,8 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
@@ -1087,49 +2053,74 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
-      </c>
-      <c r="I13" t="b">
-        <f>D9=AVERAGE(I7:I12)</f>
-        <v>0</v>
       </c>
       <c r="J13">
         <f>AVERAGE(J7:J12)</f>
         <v>105.11666666666667</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <f>AVERAGE(L7:L12)</f>
         <v>3.9</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <f>AVERAGE(M7:M12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>-0.3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>59.82</v>
+      </c>
+      <c r="D18">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>50.74</v>
+      </c>
+      <c r="D19">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>60.3</v>
+      </c>
+      <c r="D20">
+        <v>2.14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>